--- a/biology/Médecine/Ernst_von_Bergmann/Ernst_von_Bergmann.xlsx
+++ b/biology/Médecine/Ernst_von_Bergmann/Ernst_von_Bergmann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ernst von Bergmann né à Riga le 16 décembre 1836, et mort à Wiesbaden le 25 mars 1907, est un chirurgien allemand pionnier de l'asepsie chirurgicale.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ernst Gustav Benjamin von Bergmann naît le 16 décembre 1836 à Riga, actuellement en Lettonie, mais qui à cette époque est dans le gouvernement de Livonie, une division territoriale de l'Empire russe.
 Il obtient son doctorat en 1860, à l'université de Dorpat (ville aujourd'hui en Estonie et connue sous son nom estonien de Tartu) et y fait ses études de chirurgie avec Georg von Adelmann (de) (son futur beau-frère) et Georg von Oettingen (de).
@@ -547,7 +561,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ernst von Bergmann est le premier médecin à pratiquer et prescrire l'asepsie du champ opératoire, et ainsi réduire considérablement le nombre d'infections en chirurgie. Il a également utilisé la stérilisation des instruments chirurgicaux et des pansements à la vapeur et démontré sa supériorité sur l'antisepsie chimique.
 Il a servi comme médecin militaire dans la guerre austro-prussienne (1866), la guerre franco-prussienne (1870-1871) et la guerre russo-turque (1877-1878), et acquit ainsi une expérience précieuse en ce qui concerne le traitement des soldats blessés. Il était profondément intéressé par l'étiologie et la pathogénèse de maladies associées à des blessures résultant des combats. Son expérience de médecin militaire, lui a fait exprimer la nécessité d'une bonne formation du personnel infirmier ainsi que pour la mise en œuvre d'une modification de procédure de traitement des blessures par balle, en particulier, les blessures impliquant les articulations et le crâne.
@@ -585,9 +601,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Filmographie
-Télévision
-2017 : Matthias Brenner le joue dans Charité.</t>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2017 : Matthias Brenner le joue dans Charité.</t>
         </is>
       </c>
     </row>
